--- a/excel/VentasWeb.xlsx
+++ b/excel/VentasWeb.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,28 +436,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>31-07-2023 19:22</v>
+        <v>03-08-2023 12:00</v>
       </c>
       <c r="B2">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>378596</v>
+        <v>2087150</v>
       </c>
       <c r="D2" t="str">
-        <v>ACOTOL</v>
+        <v>MIRENA</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>160990</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>160990</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>19</v>
@@ -468,39 +468,103 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>03-08-2023 11:00</v>
+        <v>25-08-2023 21:04</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>673</v>
       </c>
       <c r="C3">
-        <v>2087150</v>
+        <v>378596</v>
       </c>
       <c r="D3" t="str">
-        <v>MIRENA</v>
+        <v>ACOTOL</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>160990</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>160990</v>
+        <v>100</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I3">
         <v>19</v>
       </c>
       <c r="J3" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>25-08-2023 21:08</v>
+      </c>
+      <c r="B4">
+        <v>674</v>
+      </c>
+      <c r="C4">
+        <v>378596</v>
+      </c>
+      <c r="D4" t="str">
+        <v>ACOTOL</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>19</v>
+      </c>
+      <c r="J4" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>25-08-2023 21:13</v>
+      </c>
+      <c r="B5">
+        <v>675</v>
+      </c>
+      <c r="C5">
+        <v>378596</v>
+      </c>
+      <c r="D5" t="str">
+        <v>ACOTOL</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5" t="str">
         <v>0.0000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel/VentasWeb.xlsx
+++ b/excel/VentasWeb.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -436,124 +436,124 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>03-08-2023 12:00</v>
+        <v>01-12-2023 0:27</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>2387</v>
       </c>
       <c r="C2">
-        <v>2087150</v>
+        <v>1811944</v>
       </c>
       <c r="D2" t="str">
-        <v>MIRENA</v>
+        <v>CERCIORAT</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>160990</v>
+        <v>9470</v>
       </c>
       <c r="G2">
-        <v>160990</v>
+        <v>9470</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1822</v>
       </c>
       <c r="I2">
         <v>19</v>
       </c>
       <c r="J2" t="str">
-        <v>0.0000</v>
+        <v>0.7710</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>25-08-2023 21:04</v>
+        <v>01-12-2023 11:37</v>
       </c>
       <c r="B3">
-        <v>673</v>
+        <v>2388</v>
       </c>
       <c r="C3">
-        <v>378596</v>
+        <v>963483</v>
       </c>
       <c r="D3" t="str">
-        <v>ACOTOL</v>
+        <v>LIREX</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>19800</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>19800</v>
       </c>
       <c r="H3">
-        <v>1000</v>
+        <v>12900</v>
       </c>
       <c r="I3">
         <v>19</v>
       </c>
       <c r="J3" t="str">
-        <v>0.0000</v>
+        <v>0.2247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>25-08-2023 21:08</v>
+        <v>01-12-2023 12:24</v>
       </c>
       <c r="B4">
-        <v>674</v>
+        <v>2389</v>
       </c>
       <c r="C4">
-        <v>378596</v>
+        <v>1811944</v>
       </c>
       <c r="D4" t="str">
-        <v>ACOTOL</v>
+        <v>CERCIORAT</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>9470</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>9470</v>
       </c>
       <c r="H4">
-        <v>1000</v>
+        <v>1822</v>
       </c>
       <c r="I4">
         <v>19</v>
       </c>
       <c r="J4" t="str">
-        <v>0.0000</v>
+        <v>0.7710</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>25-08-2023 21:13</v>
+        <v>01-12-2023 14:17</v>
       </c>
       <c r="B5">
-        <v>675</v>
+        <v>2390</v>
       </c>
       <c r="C5">
-        <v>378596</v>
+        <v>4569852578549858</v>
       </c>
       <c r="D5" t="str">
-        <v>ACOTOL</v>
+        <v>Tamsulosina 0.4mg x 30 Comprimidos</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>5990</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>5990</v>
       </c>
       <c r="H5">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>19</v>
@@ -562,9 +562,3561 @@
         <v>0.0000</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>01-12-2023 14:24</v>
+      </c>
+      <c r="B6">
+        <v>2391</v>
+      </c>
+      <c r="C6">
+        <v>2377674</v>
+      </c>
+      <c r="D6" t="str">
+        <v>ANDALAN COMFORT MINI Cu 375</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>16900</v>
+      </c>
+      <c r="G6">
+        <v>16900</v>
+      </c>
+      <c r="H6">
+        <v>2621</v>
+      </c>
+      <c r="I6">
+        <v>19</v>
+      </c>
+      <c r="J6" t="str">
+        <v>0.8154</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>01-12-2023 14:30</v>
+      </c>
+      <c r="B7">
+        <v>2392</v>
+      </c>
+      <c r="C7">
+        <v>378641</v>
+      </c>
+      <c r="D7" t="str">
+        <v>QLAIRA</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>21990</v>
+      </c>
+      <c r="G7">
+        <v>21990</v>
+      </c>
+      <c r="H7">
+        <v>11772</v>
+      </c>
+      <c r="I7">
+        <v>19</v>
+      </c>
+      <c r="J7" t="str">
+        <v>0.3630</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>01-12-2023 18:40</v>
+      </c>
+      <c r="B8">
+        <v>2393</v>
+      </c>
+      <c r="C8">
+        <v>9959598463</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Desve Desvenlafaxina 100 mg 30 Comprimidos</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>17990</v>
+      </c>
+      <c r="G8">
+        <v>17990</v>
+      </c>
+      <c r="H8">
+        <v>7808</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+      <c r="J8" t="str">
+        <v>0.4835</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>01-12-2023 18:55</v>
+      </c>
+      <c r="B9">
+        <v>2394</v>
+      </c>
+      <c r="C9">
+        <v>5035</v>
+      </c>
+      <c r="D9" t="str">
+        <v>ASERTIA</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>74990</v>
+      </c>
+      <c r="G9">
+        <v>74990</v>
+      </c>
+      <c r="H9">
+        <v>46934</v>
+      </c>
+      <c r="I9">
+        <v>19</v>
+      </c>
+      <c r="J9" t="str">
+        <v>0.2552</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>01-12-2023 21:21</v>
+      </c>
+      <c r="B10">
+        <v>2395</v>
+      </c>
+      <c r="C10">
+        <v>59666626265</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Lidil 5% Kit de Tratamiento para Uñas 2,5 ml</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>8990</v>
+      </c>
+      <c r="G10">
+        <v>8990</v>
+      </c>
+      <c r="H10">
+        <v>4720</v>
+      </c>
+      <c r="I10">
+        <v>19</v>
+      </c>
+      <c r="J10" t="str">
+        <v>0.3752</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>01-12-2023 21:21</v>
+      </c>
+      <c r="B11">
+        <v>2395</v>
+      </c>
+      <c r="C11">
+        <v>2439102</v>
+      </c>
+      <c r="D11" t="str">
+        <v>ARNICA GEL X 100gr</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4190</v>
+      </c>
+      <c r="G11">
+        <v>4190</v>
+      </c>
+      <c r="H11">
+        <v>2995</v>
+      </c>
+      <c r="I11">
+        <v>19</v>
+      </c>
+      <c r="J11" t="str">
+        <v>0.1494</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>02-12-2023 7:01</v>
+      </c>
+      <c r="B12">
+        <v>2396</v>
+      </c>
+      <c r="C12">
+        <v>21294</v>
+      </c>
+      <c r="D12" t="str">
+        <v>POSTPIL</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>10900</v>
+      </c>
+      <c r="G12">
+        <v>10900</v>
+      </c>
+      <c r="H12">
+        <v>2318</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12" t="str">
+        <v>0.7469</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>02-12-2023 7:23</v>
+      </c>
+      <c r="B13">
+        <v>2397</v>
+      </c>
+      <c r="C13">
+        <v>5955542</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Bilidren Bilastina 20 mg x 30 Comprimidos</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>16990</v>
+      </c>
+      <c r="G13">
+        <v>16990</v>
+      </c>
+      <c r="H13">
+        <v>11840</v>
+      </c>
+      <c r="I13">
+        <v>19</v>
+      </c>
+      <c r="J13" t="str">
+        <v>0.1707</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>02-12-2023 8:55</v>
+      </c>
+      <c r="B14">
+        <v>2398</v>
+      </c>
+      <c r="C14">
+        <v>21158</v>
+      </c>
+      <c r="D14" t="str">
+        <v>IMURAN AZIATIOPRINA</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>49200</v>
+      </c>
+      <c r="G14">
+        <v>49200</v>
+      </c>
+      <c r="H14">
+        <v>32904</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="J14" t="str">
+        <v>0.2042</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>02-12-2023 10:13</v>
+      </c>
+      <c r="B15">
+        <v>2399</v>
+      </c>
+      <c r="C15">
+        <v>1811944</v>
+      </c>
+      <c r="D15" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>9470</v>
+      </c>
+      <c r="G15">
+        <v>9470</v>
+      </c>
+      <c r="H15">
+        <v>1822</v>
+      </c>
+      <c r="I15">
+        <v>19</v>
+      </c>
+      <c r="J15" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>02-12-2023 10:14</v>
+      </c>
+      <c r="B16">
+        <v>2400</v>
+      </c>
+      <c r="C16">
+        <v>2117747</v>
+      </c>
+      <c r="D16" t="str">
+        <v>KYLEENA</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>167500</v>
+      </c>
+      <c r="G16">
+        <v>167500</v>
+      </c>
+      <c r="H16">
+        <v>108000</v>
+      </c>
+      <c r="I16">
+        <v>19</v>
+      </c>
+      <c r="J16" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>02-12-2023 11:57</v>
+      </c>
+      <c r="B17">
+        <v>2401</v>
+      </c>
+      <c r="C17">
+        <v>22944122</v>
+      </c>
+      <c r="D17" t="str">
+        <v>POSTPIL X2</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>16740</v>
+      </c>
+      <c r="G17">
+        <v>16740</v>
+      </c>
+      <c r="H17">
+        <v>4800</v>
+      </c>
+      <c r="I17">
+        <v>19</v>
+      </c>
+      <c r="J17" t="str">
+        <v>0.6588</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>02-12-2023 14:11</v>
+      </c>
+      <c r="B18">
+        <v>2402</v>
+      </c>
+      <c r="C18">
+        <v>379802</v>
+      </c>
+      <c r="D18" t="str">
+        <v>VEXA 20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>13410</v>
+      </c>
+      <c r="G18">
+        <v>13410</v>
+      </c>
+      <c r="H18">
+        <v>8825</v>
+      </c>
+      <c r="I18">
+        <v>19</v>
+      </c>
+      <c r="J18" t="str">
+        <v>0.2169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>02-12-2023 14:48</v>
+      </c>
+      <c r="B19">
+        <v>2403</v>
+      </c>
+      <c r="C19">
+        <v>1812014</v>
+      </c>
+      <c r="D19" t="str">
+        <v>DANIELE</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>11400</v>
+      </c>
+      <c r="G19">
+        <v>11400</v>
+      </c>
+      <c r="H19">
+        <v>6744</v>
+      </c>
+      <c r="I19">
+        <v>19</v>
+      </c>
+      <c r="J19" t="str">
+        <v>0.2960</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>02-12-2023 15:40</v>
+      </c>
+      <c r="B20">
+        <v>2404</v>
+      </c>
+      <c r="C20">
+        <v>845862</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Purinethol Mercaptopurina 50 mg 25 Comprimidos</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>59990</v>
+      </c>
+      <c r="G20">
+        <v>59990</v>
+      </c>
+      <c r="H20">
+        <v>36008</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" t="str">
+        <v>0.2857</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>02-12-2023 16:01</v>
+      </c>
+      <c r="B21">
+        <v>2405</v>
+      </c>
+      <c r="C21">
+        <v>1811944</v>
+      </c>
+      <c r="D21" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>9470</v>
+      </c>
+      <c r="G21">
+        <v>9470</v>
+      </c>
+      <c r="H21">
+        <v>1822</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+      <c r="J21" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>02-12-2023 16:32</v>
+      </c>
+      <c r="B22">
+        <v>2406</v>
+      </c>
+      <c r="C22">
+        <v>1811941</v>
+      </c>
+      <c r="D22" t="str">
+        <v>LADYGEX 20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>11200</v>
+      </c>
+      <c r="G22">
+        <v>22400</v>
+      </c>
+      <c r="H22">
+        <v>6692</v>
+      </c>
+      <c r="I22">
+        <v>19</v>
+      </c>
+      <c r="J22" t="str">
+        <v>0.2890</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>02-12-2023 22:05</v>
+      </c>
+      <c r="B23">
+        <v>2407</v>
+      </c>
+      <c r="C23">
+        <v>22944122</v>
+      </c>
+      <c r="D23" t="str">
+        <v>POSTPIL X2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>16740</v>
+      </c>
+      <c r="G23">
+        <v>16740</v>
+      </c>
+      <c r="H23">
+        <v>4800</v>
+      </c>
+      <c r="I23">
+        <v>19</v>
+      </c>
+      <c r="J23" t="str">
+        <v>0.6588</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>02-12-2023 22:26</v>
+      </c>
+      <c r="B24">
+        <v>2408</v>
+      </c>
+      <c r="C24">
+        <v>2087150</v>
+      </c>
+      <c r="D24" t="str">
+        <v>MIRENA</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>167500</v>
+      </c>
+      <c r="G24">
+        <v>167500</v>
+      </c>
+      <c r="H24">
+        <v>108000</v>
+      </c>
+      <c r="I24">
+        <v>19</v>
+      </c>
+      <c r="J24" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>02-12-2023 23:57</v>
+      </c>
+      <c r="B25">
+        <v>2409</v>
+      </c>
+      <c r="C25">
+        <v>2271298</v>
+      </c>
+      <c r="D25" t="str">
+        <v>FEMIPLUS CD</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>12990</v>
+      </c>
+      <c r="G25">
+        <v>25980</v>
+      </c>
+      <c r="H25">
+        <v>7355</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25" t="str">
+        <v>0.3262</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>03-12-2023 6:31</v>
+      </c>
+      <c r="B26">
+        <v>2410</v>
+      </c>
+      <c r="C26">
+        <v>2271295</v>
+      </c>
+      <c r="D26" t="str">
+        <v>FEMIPLUS 20 CD</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>11990</v>
+      </c>
+      <c r="G26">
+        <v>23980</v>
+      </c>
+      <c r="H26">
+        <v>6731</v>
+      </c>
+      <c r="I26">
+        <v>19</v>
+      </c>
+      <c r="J26" t="str">
+        <v>0.3320</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>03-12-2023 14:52</v>
+      </c>
+      <c r="B27">
+        <v>2411</v>
+      </c>
+      <c r="C27">
+        <v>5035</v>
+      </c>
+      <c r="D27" t="str">
+        <v>ASERTIA</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>74990</v>
+      </c>
+      <c r="G27">
+        <v>74990</v>
+      </c>
+      <c r="H27">
+        <v>46934</v>
+      </c>
+      <c r="I27">
+        <v>19</v>
+      </c>
+      <c r="J27" t="str">
+        <v>0.2552</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>03-12-2023 16:10</v>
+      </c>
+      <c r="B28">
+        <v>2412</v>
+      </c>
+      <c r="C28">
+        <v>2271309</v>
+      </c>
+      <c r="D28" t="str">
+        <v>SORTIFEM</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>15990</v>
+      </c>
+      <c r="G28">
+        <v>15990</v>
+      </c>
+      <c r="H28">
+        <v>9133</v>
+      </c>
+      <c r="I28">
+        <v>19</v>
+      </c>
+      <c r="J28" t="str">
+        <v>0.3203</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>03-12-2023 20:22</v>
+      </c>
+      <c r="B29">
+        <v>2413</v>
+      </c>
+      <c r="C29">
+        <v>2271295</v>
+      </c>
+      <c r="D29" t="str">
+        <v>FEMIPLUS 20 CD</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>11990</v>
+      </c>
+      <c r="G29">
+        <v>23980</v>
+      </c>
+      <c r="H29">
+        <v>6731</v>
+      </c>
+      <c r="I29">
+        <v>19</v>
+      </c>
+      <c r="J29" t="str">
+        <v>0.3320</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>03-12-2023 20:40</v>
+      </c>
+      <c r="B30">
+        <v>2414</v>
+      </c>
+      <c r="C30">
+        <v>2087150</v>
+      </c>
+      <c r="D30" t="str">
+        <v>MIRENA</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>167500</v>
+      </c>
+      <c r="G30">
+        <v>167500</v>
+      </c>
+      <c r="H30">
+        <v>108000</v>
+      </c>
+      <c r="I30">
+        <v>19</v>
+      </c>
+      <c r="J30" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>04-12-2023 7:48</v>
+      </c>
+      <c r="B31">
+        <v>2415</v>
+      </c>
+      <c r="C31">
+        <v>21158</v>
+      </c>
+      <c r="D31" t="str">
+        <v>IMURAN AZIATIOPRINA</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>49200</v>
+      </c>
+      <c r="G31">
+        <v>49200</v>
+      </c>
+      <c r="H31">
+        <v>32904</v>
+      </c>
+      <c r="I31">
+        <v>19</v>
+      </c>
+      <c r="J31" t="str">
+        <v>0.2042</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>04-12-2023 9:10</v>
+      </c>
+      <c r="B32">
+        <v>2416</v>
+      </c>
+      <c r="C32">
+        <v>2087150</v>
+      </c>
+      <c r="D32" t="str">
+        <v>MIRENA</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>167500</v>
+      </c>
+      <c r="G32">
+        <v>167500</v>
+      </c>
+      <c r="H32">
+        <v>108000</v>
+      </c>
+      <c r="I32">
+        <v>19</v>
+      </c>
+      <c r="J32" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>04-12-2023 13:03</v>
+      </c>
+      <c r="B33">
+        <v>2417</v>
+      </c>
+      <c r="C33">
+        <v>2117747</v>
+      </c>
+      <c r="D33" t="str">
+        <v>KYLEENA</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>167500</v>
+      </c>
+      <c r="G33">
+        <v>167500</v>
+      </c>
+      <c r="H33">
+        <v>108000</v>
+      </c>
+      <c r="I33">
+        <v>19</v>
+      </c>
+      <c r="J33" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>04-12-2023 13:07</v>
+      </c>
+      <c r="B34">
+        <v>2418</v>
+      </c>
+      <c r="C34">
+        <v>2412566</v>
+      </c>
+      <c r="D34" t="str">
+        <v>MENOPUR 75UI 1 ampolla</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>41359</v>
+      </c>
+      <c r="G34">
+        <v>41359</v>
+      </c>
+      <c r="H34">
+        <v>32618</v>
+      </c>
+      <c r="I34">
+        <v>19</v>
+      </c>
+      <c r="J34" t="str">
+        <v>0.0615</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>04-12-2023 13:44</v>
+      </c>
+      <c r="B35">
+        <v>2419</v>
+      </c>
+      <c r="C35">
+        <v>9959598463</v>
+      </c>
+      <c r="D35" t="str">
+        <v>Desve Desvenlafaxina 100 mg 30 Comprimidos</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>17990</v>
+      </c>
+      <c r="G35">
+        <v>17990</v>
+      </c>
+      <c r="H35">
+        <v>7808</v>
+      </c>
+      <c r="I35">
+        <v>19</v>
+      </c>
+      <c r="J35" t="str">
+        <v>0.4835</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>04-12-2023 14:06</v>
+      </c>
+      <c r="B36">
+        <v>2420</v>
+      </c>
+      <c r="C36">
+        <v>1811944</v>
+      </c>
+      <c r="D36" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>9470</v>
+      </c>
+      <c r="G36">
+        <v>9470</v>
+      </c>
+      <c r="H36">
+        <v>1822</v>
+      </c>
+      <c r="I36">
+        <v>19</v>
+      </c>
+      <c r="J36" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>04-12-2023 15:01</v>
+      </c>
+      <c r="B37">
+        <v>2421</v>
+      </c>
+      <c r="C37">
+        <v>2117747</v>
+      </c>
+      <c r="D37" t="str">
+        <v>KYLEENA</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>167500</v>
+      </c>
+      <c r="G37">
+        <v>167500</v>
+      </c>
+      <c r="H37">
+        <v>108000</v>
+      </c>
+      <c r="I37">
+        <v>19</v>
+      </c>
+      <c r="J37" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>04-12-2023 15:58</v>
+      </c>
+      <c r="B38">
+        <v>2422</v>
+      </c>
+      <c r="C38">
+        <v>1811944</v>
+      </c>
+      <c r="D38" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>9470</v>
+      </c>
+      <c r="G38">
+        <v>9470</v>
+      </c>
+      <c r="H38">
+        <v>1822</v>
+      </c>
+      <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>04-12-2023 16:00</v>
+      </c>
+      <c r="B39">
+        <v>2423</v>
+      </c>
+      <c r="C39">
+        <v>2117747</v>
+      </c>
+      <c r="D39" t="str">
+        <v>KYLEENA</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>167500</v>
+      </c>
+      <c r="G39">
+        <v>167500</v>
+      </c>
+      <c r="H39">
+        <v>108000</v>
+      </c>
+      <c r="I39">
+        <v>19</v>
+      </c>
+      <c r="J39" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>04-12-2023 18:04</v>
+      </c>
+      <c r="B40">
+        <v>2424</v>
+      </c>
+      <c r="C40">
+        <v>21294</v>
+      </c>
+      <c r="D40" t="str">
+        <v>POSTPIL</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>10900</v>
+      </c>
+      <c r="G40">
+        <v>10900</v>
+      </c>
+      <c r="H40">
+        <v>2318</v>
+      </c>
+      <c r="I40">
+        <v>19</v>
+      </c>
+      <c r="J40" t="str">
+        <v>0.7469</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>04-12-2023 18:30</v>
+      </c>
+      <c r="B41">
+        <v>2425</v>
+      </c>
+      <c r="C41">
+        <v>626226656222</v>
+      </c>
+      <c r="D41" t="str">
+        <v>Lecitina De Soya 1200mg x 100 capsulas</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2990</v>
+      </c>
+      <c r="G41">
+        <v>5980</v>
+      </c>
+      <c r="H41">
+        <v>2267</v>
+      </c>
+      <c r="I41">
+        <v>19</v>
+      </c>
+      <c r="J41" t="str">
+        <v>0.0977</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>04-12-2023 18:30</v>
+      </c>
+      <c r="B42">
+        <v>2425</v>
+      </c>
+      <c r="C42">
+        <v>9006</v>
+      </c>
+      <c r="D42" t="str">
+        <v>Cefalmin Metamizol 300 mg 10 Comprimidos Recubiertos</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1592</v>
+      </c>
+      <c r="G42">
+        <v>1592</v>
+      </c>
+      <c r="H42">
+        <v>710</v>
+      </c>
+      <c r="I42">
+        <v>19</v>
+      </c>
+      <c r="J42" t="str">
+        <v>0.4693</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>04-12-2023 21:05</v>
+      </c>
+      <c r="B43">
+        <v>2426</v>
+      </c>
+      <c r="C43">
+        <v>5035</v>
+      </c>
+      <c r="D43" t="str">
+        <v>ASERTIA</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>74990</v>
+      </c>
+      <c r="G43">
+        <v>74990</v>
+      </c>
+      <c r="H43">
+        <v>46934</v>
+      </c>
+      <c r="I43">
+        <v>19</v>
+      </c>
+      <c r="J43" t="str">
+        <v>0.2552</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>04-12-2023 21:59</v>
+      </c>
+      <c r="B44">
+        <v>2427</v>
+      </c>
+      <c r="C44">
+        <v>2272935</v>
+      </c>
+      <c r="D44" t="str">
+        <v>ARIANA</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>16279</v>
+      </c>
+      <c r="G44">
+        <v>32558</v>
+      </c>
+      <c r="H44">
+        <v>11979</v>
+      </c>
+      <c r="I44">
+        <v>19</v>
+      </c>
+      <c r="J44" t="str">
+        <v>0.1243</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>04-12-2023 22:20</v>
+      </c>
+      <c r="B45">
+        <v>2428</v>
+      </c>
+      <c r="C45">
+        <v>378596</v>
+      </c>
+      <c r="D45" t="str">
+        <v>ACOTOL</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>13990</v>
+      </c>
+      <c r="G45">
+        <v>13990</v>
+      </c>
+      <c r="H45">
+        <v>8608</v>
+      </c>
+      <c r="I45">
+        <v>19</v>
+      </c>
+      <c r="J45" t="str">
+        <v>0.2678</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>04-12-2023 23:28</v>
+      </c>
+      <c r="B46">
+        <v>2429</v>
+      </c>
+      <c r="C46">
+        <v>2117747</v>
+      </c>
+      <c r="D46" t="str">
+        <v>KYLEENA</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>167500</v>
+      </c>
+      <c r="G46">
+        <v>167500</v>
+      </c>
+      <c r="H46">
+        <v>108000</v>
+      </c>
+      <c r="I46">
+        <v>19</v>
+      </c>
+      <c r="J46" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>05-12-2023 8:01</v>
+      </c>
+      <c r="B47">
+        <v>2430</v>
+      </c>
+      <c r="C47">
+        <v>2087150</v>
+      </c>
+      <c r="D47" t="str">
+        <v>MIRENA</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>167500</v>
+      </c>
+      <c r="G47">
+        <v>167500</v>
+      </c>
+      <c r="H47">
+        <v>108000</v>
+      </c>
+      <c r="I47">
+        <v>19</v>
+      </c>
+      <c r="J47" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>05-12-2023 8:34</v>
+      </c>
+      <c r="B48">
+        <v>2431</v>
+      </c>
+      <c r="C48">
+        <v>378596</v>
+      </c>
+      <c r="D48" t="str">
+        <v>ACOTOL</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>13990</v>
+      </c>
+      <c r="G48">
+        <v>13990</v>
+      </c>
+      <c r="H48">
+        <v>8608</v>
+      </c>
+      <c r="I48">
+        <v>19</v>
+      </c>
+      <c r="J48" t="str">
+        <v>0.2678</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>05-12-2023 9:41</v>
+      </c>
+      <c r="B49">
+        <v>2432</v>
+      </c>
+      <c r="C49">
+        <v>2117747</v>
+      </c>
+      <c r="D49" t="str">
+        <v>KYLEENA</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>167500</v>
+      </c>
+      <c r="G49">
+        <v>167500</v>
+      </c>
+      <c r="H49">
+        <v>108000</v>
+      </c>
+      <c r="I49">
+        <v>19</v>
+      </c>
+      <c r="J49" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>05-12-2023 10:10</v>
+      </c>
+      <c r="B50">
+        <v>2433</v>
+      </c>
+      <c r="C50">
+        <v>9037</v>
+      </c>
+      <c r="D50" t="str">
+        <v>Venlavitae Venlafaxina 150 mg x 30 Cápsulas</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>12990</v>
+      </c>
+      <c r="G50">
+        <v>25980</v>
+      </c>
+      <c r="H50">
+        <v>6936</v>
+      </c>
+      <c r="I50">
+        <v>19</v>
+      </c>
+      <c r="J50" t="str">
+        <v>0.3646</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>05-12-2023 10:13</v>
+      </c>
+      <c r="B51">
+        <v>2434</v>
+      </c>
+      <c r="C51">
+        <v>2047983</v>
+      </c>
+      <c r="D51" t="str">
+        <v>JOLIAN</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>7470</v>
+      </c>
+      <c r="G51">
+        <v>14940</v>
+      </c>
+      <c r="H51">
+        <v>5073</v>
+      </c>
+      <c r="I51">
+        <v>19</v>
+      </c>
+      <c r="J51" t="str">
+        <v>0.1919</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>05-12-2023 12:00</v>
+      </c>
+      <c r="B52">
+        <v>2435</v>
+      </c>
+      <c r="C52">
+        <v>2272935</v>
+      </c>
+      <c r="D52" t="str">
+        <v>ARIANA</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>16279</v>
+      </c>
+      <c r="G52">
+        <v>32558</v>
+      </c>
+      <c r="H52">
+        <v>11979</v>
+      </c>
+      <c r="I52">
+        <v>19</v>
+      </c>
+      <c r="J52" t="str">
+        <v>0.1243</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>05-12-2023 12:23</v>
+      </c>
+      <c r="B53">
+        <v>2436</v>
+      </c>
+      <c r="C53">
+        <v>2087150</v>
+      </c>
+      <c r="D53" t="str">
+        <v>MIRENA</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>167500</v>
+      </c>
+      <c r="G53">
+        <v>167500</v>
+      </c>
+      <c r="H53">
+        <v>108000</v>
+      </c>
+      <c r="I53">
+        <v>19</v>
+      </c>
+      <c r="J53" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>05-12-2023 12:52</v>
+      </c>
+      <c r="B54">
+        <v>2437</v>
+      </c>
+      <c r="C54">
+        <v>373925</v>
+      </c>
+      <c r="D54" t="str">
+        <v>ENALAPRIL MALEATO 10mg x20COM</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>700</v>
+      </c>
+      <c r="G54">
+        <v>2100</v>
+      </c>
+      <c r="H54">
+        <v>400</v>
+      </c>
+      <c r="I54">
+        <v>19</v>
+      </c>
+      <c r="J54" t="str">
+        <v>0.3200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>05-12-2023 15:03</v>
+      </c>
+      <c r="B55">
+        <v>2438</v>
+      </c>
+      <c r="C55">
+        <v>1811943</v>
+      </c>
+      <c r="D55" t="str">
+        <v>SIBILLA</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>7300</v>
+      </c>
+      <c r="G55">
+        <v>7300</v>
+      </c>
+      <c r="H55">
+        <v>4455</v>
+      </c>
+      <c r="I55">
+        <v>19</v>
+      </c>
+      <c r="J55" t="str">
+        <v>0.2738</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>05-12-2023 15:34</v>
+      </c>
+      <c r="B56">
+        <v>2439</v>
+      </c>
+      <c r="C56">
+        <v>373925</v>
+      </c>
+      <c r="D56" t="str">
+        <v>ENALAPRIL MALEATO 10mg x20COM</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>700</v>
+      </c>
+      <c r="G56">
+        <v>2100</v>
+      </c>
+      <c r="H56">
+        <v>400</v>
+      </c>
+      <c r="I56">
+        <v>19</v>
+      </c>
+      <c r="J56" t="str">
+        <v>0.3200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>05-12-2023 15:52</v>
+      </c>
+      <c r="B57">
+        <v>2440</v>
+      </c>
+      <c r="C57">
+        <v>21294</v>
+      </c>
+      <c r="D57" t="str">
+        <v>POSTPIL</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>10900</v>
+      </c>
+      <c r="G57">
+        <v>10900</v>
+      </c>
+      <c r="H57">
+        <v>2318</v>
+      </c>
+      <c r="I57">
+        <v>19</v>
+      </c>
+      <c r="J57" t="str">
+        <v>0.7469</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>05-12-2023 16:29</v>
+      </c>
+      <c r="B58">
+        <v>2441</v>
+      </c>
+      <c r="C58">
+        <v>2117791</v>
+      </c>
+      <c r="D58" t="str">
+        <v>JADELLE</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>122050</v>
+      </c>
+      <c r="G58">
+        <v>122050</v>
+      </c>
+      <c r="H58">
+        <v>79818</v>
+      </c>
+      <c r="I58">
+        <v>19</v>
+      </c>
+      <c r="J58" t="str">
+        <v>0.2218</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>05-12-2023 18:15</v>
+      </c>
+      <c r="B59">
+        <v>2442</v>
+      </c>
+      <c r="C59">
+        <v>2047983</v>
+      </c>
+      <c r="D59" t="str">
+        <v>JOLIAN</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>8200</v>
+      </c>
+      <c r="G59">
+        <v>8200</v>
+      </c>
+      <c r="H59">
+        <v>5073</v>
+      </c>
+      <c r="I59">
+        <v>19</v>
+      </c>
+      <c r="J59" t="str">
+        <v>0.2638</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>05-12-2023 21:14</v>
+      </c>
+      <c r="B60">
+        <v>2443</v>
+      </c>
+      <c r="C60">
+        <v>2087150</v>
+      </c>
+      <c r="D60" t="str">
+        <v>MIRENA</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>167500</v>
+      </c>
+      <c r="G60">
+        <v>167500</v>
+      </c>
+      <c r="H60">
+        <v>108000</v>
+      </c>
+      <c r="I60">
+        <v>19</v>
+      </c>
+      <c r="J60" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>05-12-2023 22:30</v>
+      </c>
+      <c r="B61">
+        <v>2444</v>
+      </c>
+      <c r="C61">
+        <v>2271309</v>
+      </c>
+      <c r="D61" t="str">
+        <v>SORTIFEM</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>15990</v>
+      </c>
+      <c r="G61">
+        <v>15990</v>
+      </c>
+      <c r="H61">
+        <v>9133</v>
+      </c>
+      <c r="I61">
+        <v>19</v>
+      </c>
+      <c r="J61" t="str">
+        <v>0.3203</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>05-12-2023 23:32</v>
+      </c>
+      <c r="B62">
+        <v>2445</v>
+      </c>
+      <c r="C62">
+        <v>413528</v>
+      </c>
+      <c r="D62" t="str">
+        <v>LACTAFEM</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>11991</v>
+      </c>
+      <c r="G62">
+        <v>23982</v>
+      </c>
+      <c r="H62">
+        <v>8646</v>
+      </c>
+      <c r="I62">
+        <v>19</v>
+      </c>
+      <c r="J62" t="str">
+        <v>0.1420</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>05-12-2023 23:43</v>
+      </c>
+      <c r="B63">
+        <v>2446</v>
+      </c>
+      <c r="C63">
+        <v>999996</v>
+      </c>
+      <c r="D63" t="str">
+        <v>SKYN INTENSE FEEL x 9</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>9990</v>
+      </c>
+      <c r="G63">
+        <v>9990</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>19</v>
+      </c>
+      <c r="J63" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>05-12-2023 23:43</v>
+      </c>
+      <c r="B64">
+        <v>2446</v>
+      </c>
+      <c r="C64">
+        <v>2377671</v>
+      </c>
+      <c r="D64" t="str">
+        <v>LIFESTYLES NUDA ULTRA SENSIBLE X21</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>11500</v>
+      </c>
+      <c r="G64">
+        <v>11500</v>
+      </c>
+      <c r="H64">
+        <v>5870</v>
+      </c>
+      <c r="I64">
+        <v>19</v>
+      </c>
+      <c r="J64" t="str">
+        <v>0.3926</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>06-12-2023 7:35</v>
+      </c>
+      <c r="B65">
+        <v>2447</v>
+      </c>
+      <c r="C65">
+        <v>1811944</v>
+      </c>
+      <c r="D65" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>9470</v>
+      </c>
+      <c r="G65">
+        <v>9470</v>
+      </c>
+      <c r="H65">
+        <v>1822</v>
+      </c>
+      <c r="I65">
+        <v>19</v>
+      </c>
+      <c r="J65" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>06-12-2023 10:43</v>
+      </c>
+      <c r="B66">
+        <v>2448</v>
+      </c>
+      <c r="C66">
+        <v>1945242</v>
+      </c>
+      <c r="D66" t="str">
+        <v>ESCAPEL-2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>12470</v>
+      </c>
+      <c r="G66">
+        <v>12470</v>
+      </c>
+      <c r="H66">
+        <v>4282</v>
+      </c>
+      <c r="I66">
+        <v>19</v>
+      </c>
+      <c r="J66" t="str">
+        <v>0.5914</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>06-12-2023 11:09</v>
+      </c>
+      <c r="B67">
+        <v>2449</v>
+      </c>
+      <c r="C67">
+        <v>21158</v>
+      </c>
+      <c r="D67" t="str">
+        <v>IMURAN AZIATIOPRINA</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>49200</v>
+      </c>
+      <c r="G67">
+        <v>49200</v>
+      </c>
+      <c r="H67">
+        <v>32904</v>
+      </c>
+      <c r="I67">
+        <v>19</v>
+      </c>
+      <c r="J67" t="str">
+        <v>0.2042</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>06-12-2023 11:40</v>
+      </c>
+      <c r="B68">
+        <v>2450</v>
+      </c>
+      <c r="C68">
+        <v>2087150</v>
+      </c>
+      <c r="D68" t="str">
+        <v>MIRENA</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>167500</v>
+      </c>
+      <c r="G68">
+        <v>167500</v>
+      </c>
+      <c r="H68">
+        <v>108000</v>
+      </c>
+      <c r="I68">
+        <v>19</v>
+      </c>
+      <c r="J68" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>06-12-2023 11:57</v>
+      </c>
+      <c r="B69">
+        <v>2451</v>
+      </c>
+      <c r="C69">
+        <v>5035</v>
+      </c>
+      <c r="D69" t="str">
+        <v>ASERTIA</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>74990</v>
+      </c>
+      <c r="G69">
+        <v>74990</v>
+      </c>
+      <c r="H69">
+        <v>46934</v>
+      </c>
+      <c r="I69">
+        <v>19</v>
+      </c>
+      <c r="J69" t="str">
+        <v>0.2552</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>06-12-2023 12:49</v>
+      </c>
+      <c r="B70">
+        <v>2452</v>
+      </c>
+      <c r="C70">
+        <v>2272935</v>
+      </c>
+      <c r="D70" t="str">
+        <v>ARIANA</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>17290</v>
+      </c>
+      <c r="G70">
+        <v>17290</v>
+      </c>
+      <c r="H70">
+        <v>11979</v>
+      </c>
+      <c r="I70">
+        <v>19</v>
+      </c>
+      <c r="J70" t="str">
+        <v>0.1755</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>06-12-2023 14:03</v>
+      </c>
+      <c r="B71">
+        <v>2494</v>
+      </c>
+      <c r="C71">
+        <v>2087150</v>
+      </c>
+      <c r="D71" t="str">
+        <v>MIRENA</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>167500</v>
+      </c>
+      <c r="G71">
+        <v>167500</v>
+      </c>
+      <c r="H71">
+        <v>108000</v>
+      </c>
+      <c r="I71">
+        <v>19</v>
+      </c>
+      <c r="J71" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>06-12-2023 14:08</v>
+      </c>
+      <c r="B72">
+        <v>2495</v>
+      </c>
+      <c r="C72">
+        <v>2117791</v>
+      </c>
+      <c r="D72" t="str">
+        <v>JADELLE</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>122050</v>
+      </c>
+      <c r="G72">
+        <v>122050</v>
+      </c>
+      <c r="H72">
+        <v>79818</v>
+      </c>
+      <c r="I72">
+        <v>19</v>
+      </c>
+      <c r="J72" t="str">
+        <v>0.2218</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>06-12-2023 16:32</v>
+      </c>
+      <c r="B73">
+        <v>2496</v>
+      </c>
+      <c r="C73">
+        <v>379802</v>
+      </c>
+      <c r="D73" t="str">
+        <v>VEXA 20</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>13410</v>
+      </c>
+      <c r="G73">
+        <v>13410</v>
+      </c>
+      <c r="H73">
+        <v>8825</v>
+      </c>
+      <c r="I73">
+        <v>19</v>
+      </c>
+      <c r="J73" t="str">
+        <v>0.2169</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>06-12-2023 19:29</v>
+      </c>
+      <c r="B74">
+        <v>2497</v>
+      </c>
+      <c r="C74">
+        <v>1811944</v>
+      </c>
+      <c r="D74" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>9470</v>
+      </c>
+      <c r="G74">
+        <v>9470</v>
+      </c>
+      <c r="H74">
+        <v>1822</v>
+      </c>
+      <c r="I74">
+        <v>19</v>
+      </c>
+      <c r="J74" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>07-12-2023 6:59</v>
+      </c>
+      <c r="B75">
+        <v>2498</v>
+      </c>
+      <c r="C75">
+        <v>373930</v>
+      </c>
+      <c r="D75" t="str">
+        <v>ESCAPEL-1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>15290</v>
+      </c>
+      <c r="G75">
+        <v>15290</v>
+      </c>
+      <c r="H75">
+        <v>4768</v>
+      </c>
+      <c r="I75">
+        <v>19</v>
+      </c>
+      <c r="J75" t="str">
+        <v>0.6289</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>07-12-2023 9:30</v>
+      </c>
+      <c r="B76">
+        <v>2499</v>
+      </c>
+      <c r="C76" t="str">
+        <v/>
+      </c>
+      <c r="D76" t="str">
+        <v>FERTYPLUS HOMBRE X 120 CAPSULAS</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>46990</v>
+      </c>
+      <c r="G76">
+        <v>46990</v>
+      </c>
+      <c r="H76" t="str">
+        <v/>
+      </c>
+      <c r="I76">
+        <v>19</v>
+      </c>
+      <c r="J76" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>07-12-2023 10:25</v>
+      </c>
+      <c r="B77">
+        <v>2500</v>
+      </c>
+      <c r="C77">
+        <v>1811944</v>
+      </c>
+      <c r="D77" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>9470</v>
+      </c>
+      <c r="G77">
+        <v>9470</v>
+      </c>
+      <c r="H77">
+        <v>1822</v>
+      </c>
+      <c r="I77">
+        <v>19</v>
+      </c>
+      <c r="J77" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>07-12-2023 12:04</v>
+      </c>
+      <c r="B78">
+        <v>2501</v>
+      </c>
+      <c r="C78">
+        <v>21294</v>
+      </c>
+      <c r="D78" t="str">
+        <v>POSTPIL</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>10900</v>
+      </c>
+      <c r="G78">
+        <v>10900</v>
+      </c>
+      <c r="H78">
+        <v>2318</v>
+      </c>
+      <c r="I78">
+        <v>19</v>
+      </c>
+      <c r="J78" t="str">
+        <v>0.7469</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>07-12-2023 12:14</v>
+      </c>
+      <c r="B79">
+        <v>2502</v>
+      </c>
+      <c r="C79">
+        <v>21294</v>
+      </c>
+      <c r="D79" t="str">
+        <v>POSTPIL</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>10900</v>
+      </c>
+      <c r="G79">
+        <v>10900</v>
+      </c>
+      <c r="H79">
+        <v>2318</v>
+      </c>
+      <c r="I79">
+        <v>19</v>
+      </c>
+      <c r="J79" t="str">
+        <v>0.7469</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>07-12-2023 14:43</v>
+      </c>
+      <c r="B80">
+        <v>2503</v>
+      </c>
+      <c r="C80">
+        <v>1811944</v>
+      </c>
+      <c r="D80" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>9470</v>
+      </c>
+      <c r="G80">
+        <v>9470</v>
+      </c>
+      <c r="H80">
+        <v>1822</v>
+      </c>
+      <c r="I80">
+        <v>19</v>
+      </c>
+      <c r="J80" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>07-12-2023 15:04</v>
+      </c>
+      <c r="B81">
+        <v>2504</v>
+      </c>
+      <c r="C81">
+        <v>2272935</v>
+      </c>
+      <c r="D81" t="str">
+        <v>ARIANA</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>18290</v>
+      </c>
+      <c r="G81">
+        <v>18290</v>
+      </c>
+      <c r="H81">
+        <v>11979</v>
+      </c>
+      <c r="I81">
+        <v>19</v>
+      </c>
+      <c r="J81" t="str">
+        <v>0.2206</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>07-12-2023 16:02</v>
+      </c>
+      <c r="B82">
+        <v>2505</v>
+      </c>
+      <c r="C82">
+        <v>2412358</v>
+      </c>
+      <c r="D82" t="str">
+        <v>EXELRINGx3</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>37470</v>
+      </c>
+      <c r="G82">
+        <v>37470</v>
+      </c>
+      <c r="H82">
+        <v>21921</v>
+      </c>
+      <c r="I82">
+        <v>19</v>
+      </c>
+      <c r="J82" t="str">
+        <v>0.3038</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>07-12-2023 17:20</v>
+      </c>
+      <c r="B83">
+        <v>2506</v>
+      </c>
+      <c r="C83">
+        <v>2087150</v>
+      </c>
+      <c r="D83" t="str">
+        <v>MIRENA</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>167500</v>
+      </c>
+      <c r="G83">
+        <v>167500</v>
+      </c>
+      <c r="H83">
+        <v>108000</v>
+      </c>
+      <c r="I83">
+        <v>19</v>
+      </c>
+      <c r="J83" t="str">
+        <v>0.2327</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>07-12-2023 22:43</v>
+      </c>
+      <c r="B84">
+        <v>2507</v>
+      </c>
+      <c r="C84" t="str">
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <v>FERTYPLUS MUJER X 120 CAPSULAS</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>46990</v>
+      </c>
+      <c r="G84">
+        <v>46990</v>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
+      <c r="I84">
+        <v>19</v>
+      </c>
+      <c r="J84" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>08-12-2023 2:01</v>
+      </c>
+      <c r="B85">
+        <v>2508</v>
+      </c>
+      <c r="C85">
+        <v>21294</v>
+      </c>
+      <c r="D85" t="str">
+        <v>POSTPIL</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>10900</v>
+      </c>
+      <c r="G85">
+        <v>10900</v>
+      </c>
+      <c r="H85">
+        <v>2318</v>
+      </c>
+      <c r="I85">
+        <v>19</v>
+      </c>
+      <c r="J85" t="str">
+        <v>0.7469</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>08-12-2023 8:44</v>
+      </c>
+      <c r="B86">
+        <v>2509</v>
+      </c>
+      <c r="C86">
+        <v>1811943</v>
+      </c>
+      <c r="D86" t="str">
+        <v>SIBILLA</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>7000</v>
+      </c>
+      <c r="G86">
+        <v>14000</v>
+      </c>
+      <c r="H86">
+        <v>4455</v>
+      </c>
+      <c r="I86">
+        <v>19</v>
+      </c>
+      <c r="J86" t="str">
+        <v>0.2427</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>08-12-2023 9:53</v>
+      </c>
+      <c r="B87">
+        <v>2510</v>
+      </c>
+      <c r="C87">
+        <v>21294</v>
+      </c>
+      <c r="D87" t="str">
+        <v>POSTPIL</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>10900</v>
+      </c>
+      <c r="G87">
+        <v>10900</v>
+      </c>
+      <c r="H87">
+        <v>2318</v>
+      </c>
+      <c r="I87">
+        <v>19</v>
+      </c>
+      <c r="J87" t="str">
+        <v>0.7469</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>08-12-2023 9:53</v>
+      </c>
+      <c r="B88">
+        <v>2510</v>
+      </c>
+      <c r="C88">
+        <v>416510</v>
+      </c>
+      <c r="D88" t="str">
+        <v>SKYN Original X 3UNID sin latex</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>3740</v>
+      </c>
+      <c r="G88">
+        <v>3740</v>
+      </c>
+      <c r="H88">
+        <v>1925</v>
+      </c>
+      <c r="I88">
+        <v>19</v>
+      </c>
+      <c r="J88" t="str">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>08-12-2023 11:51</v>
+      </c>
+      <c r="B89">
+        <v>2511</v>
+      </c>
+      <c r="C89">
+        <v>2194565</v>
+      </c>
+      <c r="D89" t="str">
+        <v>ANDALAN CLASSIC Cu 380</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>17900</v>
+      </c>
+      <c r="G89">
+        <v>17900</v>
+      </c>
+      <c r="H89">
+        <v>2739</v>
+      </c>
+      <c r="I89">
+        <v>19</v>
+      </c>
+      <c r="J89" t="str">
+        <v>0.8179</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>08-12-2023 16:45</v>
+      </c>
+      <c r="B90">
+        <v>2512</v>
+      </c>
+      <c r="C90">
+        <v>21294</v>
+      </c>
+      <c r="D90" t="str">
+        <v>POSTPIL</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>10900</v>
+      </c>
+      <c r="G90">
+        <v>10900</v>
+      </c>
+      <c r="H90">
+        <v>2318</v>
+      </c>
+      <c r="I90">
+        <v>19</v>
+      </c>
+      <c r="J90" t="str">
+        <v>0.7469</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>08-12-2023 16:50</v>
+      </c>
+      <c r="B91">
+        <v>2513</v>
+      </c>
+      <c r="C91">
+        <v>1811944</v>
+      </c>
+      <c r="D91" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>9470</v>
+      </c>
+      <c r="G91">
+        <v>9470</v>
+      </c>
+      <c r="H91">
+        <v>1822</v>
+      </c>
+      <c r="I91">
+        <v>19</v>
+      </c>
+      <c r="J91" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>08-12-2023 21:57</v>
+      </c>
+      <c r="B92">
+        <v>2514</v>
+      </c>
+      <c r="C92">
+        <v>2047983</v>
+      </c>
+      <c r="D92" t="str">
+        <v>JOLIAN</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>8200</v>
+      </c>
+      <c r="G92">
+        <v>16400</v>
+      </c>
+      <c r="H92">
+        <v>5073</v>
+      </c>
+      <c r="I92">
+        <v>19</v>
+      </c>
+      <c r="J92" t="str">
+        <v>0.2638</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>08-12-2023 21:58</v>
+      </c>
+      <c r="B93">
+        <v>2515</v>
+      </c>
+      <c r="C93">
+        <v>2191734</v>
+      </c>
+      <c r="D93" t="str">
+        <v>LENZETTO</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>22300</v>
+      </c>
+      <c r="G93">
+        <v>44600</v>
+      </c>
+      <c r="H93">
+        <v>14241</v>
+      </c>
+      <c r="I93">
+        <v>19</v>
+      </c>
+      <c r="J93" t="str">
+        <v>0.2401</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>08-12-2023 23:32</v>
+      </c>
+      <c r="B94">
+        <v>2516</v>
+      </c>
+      <c r="C94">
+        <v>402249</v>
+      </c>
+      <c r="D94" t="str">
+        <v>ANULETTE CD</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>4900</v>
+      </c>
+      <c r="G94">
+        <v>9800</v>
+      </c>
+      <c r="H94">
+        <v>3190</v>
+      </c>
+      <c r="I94">
+        <v>19</v>
+      </c>
+      <c r="J94" t="str">
+        <v>0.2253</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>09-12-2023 1:55</v>
+      </c>
+      <c r="B95">
+        <v>2517</v>
+      </c>
+      <c r="C95">
+        <v>1695697</v>
+      </c>
+      <c r="D95" t="str">
+        <v>DALGIET</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>17790</v>
+      </c>
+      <c r="G95">
+        <v>35580</v>
+      </c>
+      <c r="H95">
+        <v>12653</v>
+      </c>
+      <c r="I95">
+        <v>19</v>
+      </c>
+      <c r="J95" t="str">
+        <v>0.1536</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>09-12-2023 2:33</v>
+      </c>
+      <c r="B96">
+        <v>2518</v>
+      </c>
+      <c r="C96">
+        <v>2272934</v>
+      </c>
+      <c r="D96" t="str">
+        <v>ALIZON</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>9300</v>
+      </c>
+      <c r="G96">
+        <v>18600</v>
+      </c>
+      <c r="H96">
+        <v>9922</v>
+      </c>
+      <c r="I96">
+        <v>19</v>
+      </c>
+      <c r="J96" t="str">
+        <v>-0.2696</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>09-12-2023 7:41</v>
+      </c>
+      <c r="B97">
+        <v>2519</v>
+      </c>
+      <c r="C97">
+        <v>1811944</v>
+      </c>
+      <c r="D97" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>9470</v>
+      </c>
+      <c r="G97">
+        <v>9470</v>
+      </c>
+      <c r="H97">
+        <v>1822</v>
+      </c>
+      <c r="I97">
+        <v>19</v>
+      </c>
+      <c r="J97" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>09-12-2023 8:25</v>
+      </c>
+      <c r="B98">
+        <v>2520</v>
+      </c>
+      <c r="C98">
+        <v>1811944</v>
+      </c>
+      <c r="D98" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>9470</v>
+      </c>
+      <c r="G98">
+        <v>9470</v>
+      </c>
+      <c r="H98">
+        <v>1822</v>
+      </c>
+      <c r="I98">
+        <v>19</v>
+      </c>
+      <c r="J98" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>09-12-2023 8:46</v>
+      </c>
+      <c r="B99">
+        <v>2521</v>
+      </c>
+      <c r="C99" t="str">
+        <v/>
+      </c>
+      <c r="D99" t="str">
+        <v>FERTYPLUS HOMBRE X 120 CAPSULAS</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>46990</v>
+      </c>
+      <c r="G99">
+        <v>46990</v>
+      </c>
+      <c r="H99" t="str">
+        <v/>
+      </c>
+      <c r="I99">
+        <v>19</v>
+      </c>
+      <c r="J99" t="str">
+        <v>0.0000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>09-12-2023 9:21</v>
+      </c>
+      <c r="B100">
+        <v>2522</v>
+      </c>
+      <c r="C100">
+        <v>1811944</v>
+      </c>
+      <c r="D100" t="str">
+        <v>CERCIORAT</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>9470</v>
+      </c>
+      <c r="G100">
+        <v>9470</v>
+      </c>
+      <c r="H100">
+        <v>1822</v>
+      </c>
+      <c r="I100">
+        <v>19</v>
+      </c>
+      <c r="J100" t="str">
+        <v>0.7710</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>09-12-2023 9:22</v>
+      </c>
+      <c r="B101">
+        <v>2523</v>
+      </c>
+      <c r="C101">
+        <v>2294412</v>
+      </c>
+      <c r="D101" t="str">
+        <v>POSTPIL Prioritario</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>20990</v>
+      </c>
+      <c r="G101">
+        <v>20990</v>
+      </c>
+      <c r="H101">
+        <v>2400</v>
+      </c>
+      <c r="I101">
+        <v>19</v>
+      </c>
+      <c r="J101" t="str">
+        <v>0.8639</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>09-12-2023 9:33</v>
+      </c>
+      <c r="B102">
+        <v>2524</v>
+      </c>
+      <c r="C102">
+        <v>2272934</v>
+      </c>
+      <c r="D102" t="str">
+        <v>ALIZON</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>9400</v>
+      </c>
+      <c r="G102">
+        <v>18800</v>
+      </c>
+      <c r="H102">
+        <v>9922</v>
+      </c>
+      <c r="I102">
+        <v>19</v>
+      </c>
+      <c r="J102" t="str">
+        <v>-0.2561</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>09-12-2023 9:40</v>
+      </c>
+      <c r="B103">
+        <v>2525</v>
+      </c>
+      <c r="C103">
+        <v>373930</v>
+      </c>
+      <c r="D103" t="str">
+        <v>ESCAPEL-1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>15290</v>
+      </c>
+      <c r="G103">
+        <v>15290</v>
+      </c>
+      <c r="H103">
+        <v>4768</v>
+      </c>
+      <c r="I103">
+        <v>19</v>
+      </c>
+      <c r="J103" t="str">
+        <v>0.6289</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>09-12-2023 10:29</v>
+      </c>
+      <c r="B104">
+        <v>2526</v>
+      </c>
+      <c r="C104">
+        <v>21118</v>
+      </c>
+      <c r="D104" t="str">
+        <v>DONABEL 2/1</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>11990</v>
+      </c>
+      <c r="G104">
+        <v>35970</v>
+      </c>
+      <c r="H104">
+        <v>7326</v>
+      </c>
+      <c r="I104">
+        <v>19</v>
+      </c>
+      <c r="J104" t="str">
+        <v>0.2729</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>09-12-2023 13:40</v>
+      </c>
+      <c r="B105">
+        <v>2527</v>
+      </c>
+      <c r="C105">
+        <v>373930</v>
+      </c>
+      <c r="D105" t="str">
+        <v>ESCAPEL-1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>15290</v>
+      </c>
+      <c r="G105">
+        <v>15290</v>
+      </c>
+      <c r="H105">
+        <v>4768</v>
+      </c>
+      <c r="I105">
+        <v>19</v>
+      </c>
+      <c r="J105" t="str">
+        <v>0.6289</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>09-12-2023 14:59</v>
+      </c>
+      <c r="B106">
+        <v>2528</v>
+      </c>
+      <c r="C106">
+        <v>21294</v>
+      </c>
+      <c r="D106" t="str">
+        <v>POSTPIL</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>10900</v>
+      </c>
+      <c r="G106">
+        <v>10900</v>
+      </c>
+      <c r="H106">
+        <v>2318</v>
+      </c>
+      <c r="I106">
+        <v>19</v>
+      </c>
+      <c r="J106" t="str">
+        <v>0.7469</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>09-12-2023 19:49</v>
+      </c>
+      <c r="B107">
+        <v>2529</v>
+      </c>
+      <c r="C107">
+        <v>5035</v>
+      </c>
+      <c r="D107" t="str">
+        <v>ASERTIA</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>74990</v>
+      </c>
+      <c r="G107">
+        <v>74990</v>
+      </c>
+      <c r="H107">
+        <v>46934</v>
+      </c>
+      <c r="I107">
+        <v>19</v>
+      </c>
+      <c r="J107" t="str">
+        <v>0.2552</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>10-12-2023 10:49</v>
+      </c>
+      <c r="B108">
+        <v>2530</v>
+      </c>
+      <c r="C108">
+        <v>2271309</v>
+      </c>
+      <c r="D108" t="str">
+        <v>SORTIFEM</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>15990</v>
+      </c>
+      <c r="G108">
+        <v>15990</v>
+      </c>
+      <c r="H108">
+        <v>9133</v>
+      </c>
+      <c r="I108">
+        <v>19</v>
+      </c>
+      <c r="J108" t="str">
+        <v>0.3203</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>10-12-2023 10:52</v>
+      </c>
+      <c r="B109">
+        <v>2531</v>
+      </c>
+      <c r="C109">
+        <v>2272935</v>
+      </c>
+      <c r="D109" t="str">
+        <v>ARIANA</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>19204</v>
+      </c>
+      <c r="G109">
+        <v>19204</v>
+      </c>
+      <c r="H109">
+        <v>11979</v>
+      </c>
+      <c r="I109">
+        <v>19</v>
+      </c>
+      <c r="J109" t="str">
+        <v>0.2577</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>10-12-2023 11:02</v>
+      </c>
+      <c r="B110">
+        <v>2532</v>
+      </c>
+      <c r="C110">
+        <v>2412569</v>
+      </c>
+      <c r="D110" t="str">
+        <v>GONAPEPTYL Inyectable</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>33890</v>
+      </c>
+      <c r="G110">
+        <v>33890</v>
+      </c>
+      <c r="H110">
+        <v>25042</v>
+      </c>
+      <c r="I110">
+        <v>19</v>
+      </c>
+      <c r="J110" t="str">
+        <v>0.1207</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>10-12-2023 12:14</v>
+      </c>
+      <c r="B111">
+        <v>2533</v>
+      </c>
+      <c r="C111">
+        <v>2272935</v>
+      </c>
+      <c r="D111" t="str">
+        <v>ARIANA</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>19204</v>
+      </c>
+      <c r="G111">
+        <v>38408</v>
+      </c>
+      <c r="H111">
+        <v>11979</v>
+      </c>
+      <c r="I111">
+        <v>19</v>
+      </c>
+      <c r="J111" t="str">
+        <v>0.2577</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>10-12-2023 17:30</v>
+      </c>
+      <c r="B112">
+        <v>2534</v>
+      </c>
+      <c r="C112">
+        <v>21118</v>
+      </c>
+      <c r="D112" t="str">
+        <v>DONABEL 2/1</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>11990</v>
+      </c>
+      <c r="G112">
+        <v>23980</v>
+      </c>
+      <c r="H112">
+        <v>7326</v>
+      </c>
+      <c r="I112">
+        <v>19</v>
+      </c>
+      <c r="J112" t="str">
+        <v>0.2729</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>10-12-2023 18:34</v>
+      </c>
+      <c r="B113">
+        <v>2535</v>
+      </c>
+      <c r="C113">
+        <v>745785</v>
+      </c>
+      <c r="D113" t="str">
+        <v>Hialuronato de Sodio 0,4% Solucion Oftalmica 10ml</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>6615</v>
+      </c>
+      <c r="G113">
+        <v>6615</v>
+      </c>
+      <c r="H113">
+        <v>3449</v>
+      </c>
+      <c r="I113">
+        <v>19</v>
+      </c>
+      <c r="J113" t="str">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>10-12-2023 23:31</v>
+      </c>
+      <c r="B114">
+        <v>2536</v>
+      </c>
+      <c r="C114">
+        <v>2047983</v>
+      </c>
+      <c r="D114" t="str">
+        <v>JOLIAN</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>7840</v>
+      </c>
+      <c r="G114">
+        <v>15680</v>
+      </c>
+      <c r="H114">
+        <v>5073</v>
+      </c>
+      <c r="I114">
+        <v>19</v>
+      </c>
+      <c r="J114" t="str">
+        <v>0.2300</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>11-12-2023 0:15</v>
+      </c>
+      <c r="B115">
+        <v>2537</v>
+      </c>
+      <c r="C115">
+        <v>2271309</v>
+      </c>
+      <c r="D115" t="str">
+        <v>SORTIFEM</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>15990</v>
+      </c>
+      <c r="G115">
+        <v>15990</v>
+      </c>
+      <c r="H115">
+        <v>9133</v>
+      </c>
+      <c r="I115">
+        <v>19</v>
+      </c>
+      <c r="J115" t="str">
+        <v>0.3203</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>11-12-2023 8:03</v>
+      </c>
+      <c r="B116">
+        <v>2538</v>
+      </c>
+      <c r="C116">
+        <v>1698200</v>
+      </c>
+      <c r="D116" t="str">
+        <v>DIONELA</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>3490</v>
+      </c>
+      <c r="G116">
+        <v>6980</v>
+      </c>
+      <c r="H116">
+        <v>1885</v>
+      </c>
+      <c r="I116">
+        <v>19</v>
+      </c>
+      <c r="J116" t="str">
+        <v>0.3573</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J116"/>
   </ignoredErrors>
 </worksheet>
 </file>